--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829/Roxie_vs_MM_MiddlePoint MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829/Roxie_vs_MM_MiddlePoint MCBXFB_PP-Piotr-Crosscheck_Outer_Iron_600_20220519_145829.xlsx
@@ -500,7 +500,7 @@
         <v>-0.000342</v>
       </c>
       <c r="C3">
-        <v>-0.890064</v>
+        <v>-0.89007</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -522,7 +522,7 @@
         <v>-0.000777</v>
       </c>
       <c r="C5">
-        <v>0.010603</v>
+        <v>0.010608</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -544,7 +544,7 @@
         <v>-4.2E-05</v>
       </c>
       <c r="C7">
-        <v>-0.304723</v>
+        <v>-0.304725</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -566,7 +566,7 @@
         <v>1E-06</v>
       </c>
       <c r="C9">
-        <v>-0.057503</v>
+        <v>-0.057502</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -665,7 +665,7 @@
         <v>0.01889</v>
       </c>
       <c r="C18">
-        <v>0.753592</v>
+        <v>0.753589</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -676,7 +676,7 @@
         <v>0.043943</v>
       </c>
       <c r="C19">
-        <v>-0.360291</v>
+        <v>-0.360292</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -687,7 +687,7 @@
         <v>-0.00107</v>
       </c>
       <c r="C20">
-        <v>-0.293526</v>
+        <v>-0.293529</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -698,7 +698,7 @@
         <v>-0.002821</v>
       </c>
       <c r="C21">
-        <v>-0.06489200000000001</v>
+        <v>-0.064891</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -709,7 +709,7 @@
         <v>-0.000198</v>
       </c>
       <c r="C22">
-        <v>0.547683</v>
+        <v>0.547691</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -720,7 +720,7 @@
         <v>-0.000444</v>
       </c>
       <c r="C23">
-        <v>0.034902</v>
+        <v>0.034901</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -731,7 +731,7 @@
         <v>1E-06</v>
       </c>
       <c r="C24">
-        <v>0.051038</v>
+        <v>0.051039</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -775,7 +775,7 @@
         <v>-9E-06</v>
       </c>
       <c r="C28">
-        <v>-0.01378</v>
+        <v>-0.013781</v>
       </c>
     </row>
     <row r="29" spans="1:3">
